--- a/hebrewOutputs/hebrew82Comperation_11_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_11_Common_alpha=0.0.xlsx
@@ -34,63 +34,66 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלום, </t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>הורה:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מה קורה? </t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>מה שלום יואב?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מה שלומך? </t>
+  </si>
+  <si>
+    <t>יואב בסדר,</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>(לא נשמע)</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קוראים לי ד"ר דוק א..... </t>
+  </si>
+  <si>
+    <t>מה שלומך?</t>
+  </si>
+  <si>
+    <t>בסדר, אני רואה שמשחררים אותו, כי אני....  חשבתי שיתנו לו טיפול ושנצא</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>OK, אני רוצה רק לדעת קצת דברים עליך, קודם כל אחר כך אני מסביר לך</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלום, </t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>הורה:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה קורה? </t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>מה שלום יואב?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מה שלומך? </t>
-  </si>
-  <si>
-    <t>יואב בסדר,</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>(לא נשמע)</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קוראים לי ד"ר דוק א..... </t>
-  </si>
-  <si>
-    <t>מה שלומך?</t>
-  </si>
-  <si>
-    <t>בסדר, אני רואה שמשחררים אותו, כי אני....  חשבתי שיתנו לו טיפול ושנצא</t>
-  </si>
-  <si>
-    <t>OK, אני רוצה רק לדעת קצת דברים עליך, קודם כל אחר כך אני מסביר לך</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
     <t>הילד שלך הוא טוב, הוא בסדר גמור</t>
   </si>
   <si>
@@ -127,27 +130,27 @@
     <t>..ילדה קטנה</t>
   </si>
   <si>
+    <t>כמה?</t>
+  </si>
+  <si>
+    <t>בת שנתיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בת שנתיים, </t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>OK אני רוצה להסביר לך, בקשר למשפחה שלכם, יש אנשים שהם חולים בסוכרת אולי? אמא...</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
     <t>disagree</t>
   </si>
   <si>
-    <t>כמה?</t>
-  </si>
-  <si>
-    <t>בת שנתיים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בת שנתיים, </t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>OK אני רוצה להסביר לך, בקשר למשפחה שלכם, יש אנשים שהם חולים בסוכרת אולי? אמא...</t>
-  </si>
-  <si>
-    <t>לא</t>
-  </si>
-  <si>
     <t xml:space="preserve">אמא שלך? </t>
   </si>
   <si>
@@ -290,9 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">אני לא... לא מעכלת את זה, בזה בכלל קשור לבן שלי, אזה... </t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">זה לא מסתדר לי, </t>
@@ -883,136 +883,136 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1023,136 +1023,136 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1160,13 +1160,13 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1174,13 +1174,13 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1191,10 +1191,10 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1202,13 +1202,13 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1216,27 +1216,27 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1244,629 +1244,629 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1874,13 +1874,13 @@
         <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1888,27 +1888,27 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1916,13 +1916,13 @@
         <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1930,13 +1930,13 @@
         <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1944,13 +1944,13 @@
         <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1958,13 +1958,13 @@
         <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1975,10 +1975,10 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1989,10 +1989,10 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2000,13 +2000,13 @@
         <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2014,13 +2014,13 @@
         <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2028,13 +2028,13 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2042,13 +2042,13 @@
         <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2059,10 +2059,10 @@
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2070,13 +2070,13 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2087,10 +2087,10 @@
         <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2098,13 +2098,13 @@
         <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2115,10 +2115,10 @@
         <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2126,13 +2126,13 @@
         <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2140,13 +2140,13 @@
         <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2157,10 +2157,10 @@
         <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2168,13 +2168,13 @@
         <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2182,13 +2182,13 @@
         <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2196,13 +2196,13 @@
         <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2210,13 +2210,13 @@
         <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2224,13 +2224,13 @@
         <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2238,13 +2238,13 @@
         <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2252,13 +2252,13 @@
         <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2266,13 +2266,13 @@
         <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2280,13 +2280,13 @@
         <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2294,13 +2294,13 @@
         <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2308,13 +2308,13 @@
         <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2322,13 +2322,13 @@
         <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2336,13 +2336,13 @@
         <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2350,13 +2350,13 @@
         <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2364,13 +2364,13 @@
         <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2378,13 +2378,13 @@
         <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2392,13 +2392,13 @@
         <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2406,13 +2406,13 @@
         <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2420,13 +2420,13 @@
         <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2434,27 +2434,27 @@
         <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2462,13 +2462,13 @@
         <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2476,13 +2476,13 @@
         <v>137</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2493,10 +2493,10 @@
         <v>107</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2507,10 +2507,10 @@
         <v>110</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2518,13 +2518,13 @@
         <v>140</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2532,13 +2532,13 @@
         <v>141</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2546,13 +2546,13 @@
         <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2560,13 +2560,13 @@
         <v>143</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2574,13 +2574,13 @@
         <v>144</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2591,10 +2591,10 @@
         <v>146</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2605,10 +2605,10 @@
         <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2616,13 +2616,13 @@
         <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2633,10 +2633,10 @@
         <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2644,13 +2644,13 @@
         <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2658,13 +2658,13 @@
         <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2672,13 +2672,13 @@
         <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2689,10 +2689,10 @@
         <v>155</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2700,13 +2700,13 @@
         <v>156</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2717,10 +2717,10 @@
         <v>100</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2728,13 +2728,13 @@
         <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2745,10 +2745,10 @@
         <v>155</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2756,27 +2756,27 @@
         <v>160</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2784,13 +2784,13 @@
         <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2798,13 +2798,13 @@
         <v>162</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2812,13 +2812,13 @@
         <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2829,10 +2829,10 @@
         <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2843,10 +2843,10 @@
         <v>166</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2857,10 +2857,10 @@
         <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2868,13 +2868,13 @@
         <v>168</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2885,10 +2885,10 @@
         <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
